--- a/experiment/data.FF.ge.p.xlsx
+++ b/experiment/data.FF.ge.p.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F528F6B-9495-46FA-BE9A-63D0C0157928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B3D94-D26B-4DE3-8FF2-E4FACA325B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="7" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
@@ -41,11 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
-  <si>
-    <t>GE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>none</t>
   </si>
@@ -54,19 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GeV-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GE.p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gev2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ge.p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,9 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEBEA60-DDC0-4A33-AD16-E8B4CE2FAD79}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -553,23 +535,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -887,13 +869,13 @@
         <v>1.0123763071760001</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -902,13 +884,13 @@
         <v>1.0902514077280001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -917,13 +899,13 @@
         <v>1.1681265082800001</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -939,7 +921,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -951,21 +933,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1123,21 +1105,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1444,13 +1426,13 @@
         <v>2.33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1460,13 +1442,13 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1476,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1492,13 +1474,13 @@
         <v>3.74</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1516,7 +1498,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1529,21 +1511,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1662,7 +1644,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1672,21 +1654,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1863,7 +1845,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1873,21 +1855,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2345,28 +2327,28 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2654,21 +2636,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/experiment/data.FF.ge.p.xlsx
+++ b/experiment/data.FF.ge.p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B3D94-D26B-4DE3-8FF2-E4FACA325B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB58E0-A7A2-4B3B-9868-55DDEBAC8DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="7" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="8" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="Janssens1966" sheetId="30" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Hohler1976" sheetId="7" r:id="rId6"/>
     <sheet name="Simon1980" sheetId="8" r:id="rId7"/>
     <sheet name="Walker1994" sheetId="9" r:id="rId8"/>
+    <sheet name="Arrington2007" sheetId="31" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Berger1971!$A$1:$C$1</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t>none</t>
   </si>
@@ -2623,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF2AFD-0FC7-48B7-91A2-EE7828F9C479}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -2905,4 +2906,707 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F252AE-D43B-4B96-B9D6-C421F5359E49}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>0.98056951228289269</v>
+      </c>
+      <c r="C3">
+        <v>5.8834170736973565E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.8834170736973565E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.96316710276931583</v>
+      </c>
+      <c r="C4">
+        <v>5.8022114624657582E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.8022114624657582E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.94901036650779802</v>
+      </c>
+      <c r="C5">
+        <v>2.8613377884657231E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.8613377884657231E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.93420843411269372</v>
+      </c>
+      <c r="C6">
+        <v>2.8223819761712802E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.8223819761712802E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7">
+        <v>0.90951570489408329</v>
+      </c>
+      <c r="C7">
+        <v>6.4439371804236676E-3</v>
+      </c>
+      <c r="D7">
+        <v>6.4439371804236676E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.88926388372558562</v>
+      </c>
+      <c r="C8">
+        <v>3.60390631702365E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.60390631702365E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.87055413022317341</v>
+      </c>
+      <c r="C9">
+        <v>6.2565491905156199E-3</v>
+      </c>
+      <c r="D9">
+        <v>6.2565491905156199E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.86069106313656973</v>
+      </c>
+      <c r="C10">
+        <v>4.3868046031425578E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.3868046031425578E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.83975393046614821</v>
+      </c>
+      <c r="C11">
+        <v>4.2844588289089195E-3</v>
+      </c>
+      <c r="D11">
+        <v>4.2844588289089195E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.83954336931671925</v>
+      </c>
+      <c r="C12">
+        <v>6.7841888429633884E-3</v>
+      </c>
+      <c r="D12">
+        <v>6.7841888429633884E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.81158936195807452</v>
+      </c>
+      <c r="C13">
+        <v>5.8148674858818031E-3</v>
+      </c>
+      <c r="D13">
+        <v>5.8148674858818031E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.78715143979120339</v>
+      </c>
+      <c r="C14">
+        <v>4.0284106437625559E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.0284106437625559E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.75128862979119693</v>
+      </c>
+      <c r="C15">
+        <v>5.4049541711596906E-3</v>
+      </c>
+      <c r="D15">
+        <v>5.4049541711596906E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.115</v>
+      </c>
+      <c r="B16">
+        <v>0.72138607897153351</v>
+      </c>
+      <c r="C16">
+        <v>8.1470707070707069E-3</v>
+      </c>
+      <c r="D16">
+        <v>8.1470707070707069E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.67577485315058738</v>
+      </c>
+      <c r="C17">
+        <v>8.4121351014595953E-3</v>
+      </c>
+      <c r="D17">
+        <v>8.4121351014595953E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.64038595085298011</v>
+      </c>
+      <c r="C18">
+        <v>7.793743823768521E-3</v>
+      </c>
+      <c r="D18">
+        <v>7.793743823768521E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.59727126728074342</v>
+      </c>
+      <c r="C19">
+        <v>6.7109131155139706E-3</v>
+      </c>
+      <c r="D19">
+        <v>6.7109131155139706E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="B20">
+        <v>0.55323744074978454</v>
+      </c>
+      <c r="C20">
+        <v>6.7881894570525712E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.7881894570525712E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="B21">
+        <v>0.49821068024162529</v>
+      </c>
+      <c r="C21">
+        <v>5.2168657616924116E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.2168657616924116E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="B22">
+        <v>0.47066512610436145</v>
+      </c>
+      <c r="C22">
+        <v>4.9027617302537657E-3</v>
+      </c>
+      <c r="D22">
+        <v>4.9027617302537657E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.35</v>
+      </c>
+      <c r="B23">
+        <v>0.42127972588109641</v>
+      </c>
+      <c r="C23">
+        <v>6.2810608757564966E-3</v>
+      </c>
+      <c r="D23">
+        <v>6.2810608757564966E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.39</v>
+      </c>
+      <c r="B24">
+        <v>0.40203016528925606</v>
+      </c>
+      <c r="C24">
+        <v>4.5827272727272713E-3</v>
+      </c>
+      <c r="D24">
+        <v>4.5827272727272713E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0.37407230951226367</v>
+      </c>
+      <c r="C25">
+        <v>5.8387977551341884E-3</v>
+      </c>
+      <c r="D25">
+        <v>5.8387977551341884E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B26">
+        <v>0.34939681555196217</v>
+      </c>
+      <c r="C26">
+        <v>3.9622319289397767E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.9622319289397767E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="B27">
+        <v>0.32364619572451259</v>
+      </c>
+      <c r="C27">
+        <v>4.2758135614010808E-3</v>
+      </c>
+      <c r="D27">
+        <v>4.2758135614010808E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="B28">
+        <v>0.2911217269576144</v>
+      </c>
+      <c r="C28">
+        <v>3.9137357295232541E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.9137357295232541E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.622</v>
+      </c>
+      <c r="B29">
+        <v>0.27531636366095819</v>
+      </c>
+      <c r="C29">
+        <v>3.9777390002615218E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.9777390002615218E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="B30">
+        <v>0.25266801927855137</v>
+      </c>
+      <c r="C30">
+        <v>5.9239189025552313E-3</v>
+      </c>
+      <c r="D30">
+        <v>5.9239189025552313E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B31">
+        <v>0.21940908953548316</v>
+      </c>
+      <c r="C31">
+        <v>2.5010362537723468E-3</v>
+      </c>
+      <c r="D31">
+        <v>2.5010362537723468E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="B32">
+        <v>0.18901410537751401</v>
+      </c>
+      <c r="C32">
+        <v>4.5396400854861435E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.5396400854861435E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.16486901453033792</v>
+      </c>
+      <c r="C33">
+        <v>8.6587156612932016E-3</v>
+      </c>
+      <c r="D33">
+        <v>8.6587156612932016E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.02</v>
+      </c>
+      <c r="B34">
+        <v>0.15495739917805476</v>
+      </c>
+      <c r="C34">
+        <v>2.8633432456814469E-3</v>
+      </c>
+      <c r="D34">
+        <v>2.8633432456814469E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.17</v>
+      </c>
+      <c r="B35">
+        <v>0.13150186736079675</v>
+      </c>
+      <c r="C35">
+        <v>1.9967745586238119E-3</v>
+      </c>
+      <c r="D35">
+        <v>1.9967745586238119E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.33</v>
+      </c>
+      <c r="B36">
+        <v>0.11337889273356401</v>
+      </c>
+      <c r="C36">
+        <v>5.6931708958093035E-3</v>
+      </c>
+      <c r="D36">
+        <v>5.6931708958093035E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.52</v>
+      </c>
+      <c r="B37">
+        <v>9.0117416396871028E-2</v>
+      </c>
+      <c r="C37">
+        <v>2.2301272899113186E-3</v>
+      </c>
+      <c r="D37">
+        <v>2.2301272899113186E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.74</v>
+      </c>
+      <c r="B38">
+        <v>7.0880533111203653E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.6796334860474801E-3</v>
+      </c>
+      <c r="D38">
+        <v>1.6796334860474801E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1.83</v>
+      </c>
+      <c r="B39">
+        <v>6.6884121768243529E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.9691549383098763E-3</v>
+      </c>
+      <c r="D39">
+        <v>2.9691549383098763E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B40">
+        <v>5.4594961440919201E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.4786242948087573E-3</v>
+      </c>
+      <c r="D40">
+        <v>2.4786242948087573E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.5</v>
+      </c>
+      <c r="B41">
+        <v>3.6398171601595489E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.8590463990062211E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.8590463990062211E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2.69</v>
+      </c>
+      <c r="B42">
+        <v>3.1528053633217985E-2</v>
+      </c>
+      <c r="C42">
+        <v>3.2705449826989611E-3</v>
+      </c>
+      <c r="D42">
+        <v>3.2705449826989611E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.9</v>
+      </c>
+      <c r="B43">
+        <v>2.6148632990845681E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.508574980241097E-3</v>
+      </c>
+      <c r="D43">
+        <v>1.508574980241097E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.09</v>
+      </c>
+      <c r="B44">
+        <v>2.3494411357340723E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.1193767313019393E-3</v>
+      </c>
+      <c r="D44">
+        <v>4.1193767313019393E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.24</v>
+      </c>
+      <c r="B45">
+        <v>2.1743906425252365E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.6185995834000961E-3</v>
+      </c>
+      <c r="D45">
+        <v>3.6185995834000961E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3.71</v>
+      </c>
+      <c r="B46">
+        <v>1.682363178477099E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.0321246493724533E-3</v>
+      </c>
+      <c r="D46">
+        <v>1.0321246493724533E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B47">
+        <v>1.1847187548423751E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.2801905958919435E-3</v>
+      </c>
+      <c r="D47">
+        <v>1.2801905958919435E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5.01</v>
+      </c>
+      <c r="B48">
+        <v>6.30155814465255E-3</v>
+      </c>
+      <c r="C48">
+        <v>8.7821225976820387E-4</v>
+      </c>
+      <c r="D48">
+        <v>8.7821225976820387E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5.85</v>
+      </c>
+      <c r="B49">
+        <v>3.3619474085365853E-3</v>
+      </c>
+      <c r="C49">
+        <v>1.112839734533016E-3</v>
+      </c>
+      <c r="D49">
+        <v>1.112839734533016E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>